--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>34.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>96.94</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.24</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.38</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.37</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.38</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.37</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>92.99</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>9.20</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -772,15 +872,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>50.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.49</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1100</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>63.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>001415</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>信诚新锐回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>002046</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>信诚新锐回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001415</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合A</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002046</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合B</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>43.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>43.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.95</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>43.95</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8527</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.94</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.27</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.64</v>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2288,1137 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2525</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1985</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1933</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3317,7 +3318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3328,17 +3329,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3348,14 +3369,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3364,14 +3407,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.94</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3380,14 +3445,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.27</v>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3396,14 +3483,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.64</v>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3412,13 +3521,1079 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6343</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4714</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4476,7 +4477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4487,17 +4488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4507,14 +4528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.27</v>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4523,14 +4566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14</v>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4539,14 +4604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.94</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4555,14 +4642,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="6">
@@ -4571,14 +4680,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.64</v>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4587,13 +4718,561 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>9.27</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>2.94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.27</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>4.64</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2419,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3613,7 +3876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4125,7 +4388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4371,7 +4634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4921,7 +5184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002438-江苏神通.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.98</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>9.27</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>2.94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.27</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>4.64</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -616,7 +633,841 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒生前海高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013384</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,7 +1713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1524,7 +2375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2682,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3876,7 +4727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4388,7 +5239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4634,7 +5485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5182,364 +6033,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>66.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8856</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8664</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005368</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4012</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009693</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3123</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011127</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>